--- a/similarities/split_global/harmonic_similarity_timestamps_313.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_313.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_135</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:30.160000', '0:00:44.080000')]</t>
+          <t>('0:01:06.520000', '0:01:10.140000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:56.760000', '0:01:02.320000')]</t>
+          <t>('0:00:04.250000', '0:00:09.179000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-135#t=30.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-165#t=56.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>jaah_58</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
+          <t>jaah_41</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['C:7', 'F:min7', 'Bb:7']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['D:7', 'G:min7', 'C:7']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:18.320000', '0:00:25.820000')]</t>
+          <t>('0:00:00.590000', '0:00:01.840000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:10.634761', '0:00:15.986961')]</t>
+          <t>('0:00:08.520000', '0:00:11.210000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-58#t=0.59</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-128#t=10.634761']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=8.52</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G', 'G:7', 'C'], ['G', 'D', 'G']]</t>
+          <t>['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'D#:7', 'G#:maj'], ['D#:maj', 'A#:maj', 'D#:maj']]</t>
+          <t>['Ab', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:51.641107', '0:00:57.139232'), ('0:00:00.421247', '0:00:03.083177')]</t>
+          <t>('0:01:13.320000', '0:01:26.060000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:19.480000', '0:00:31.260000'), ('0:00:00.780000', '0:00:24.040000')]</t>
+          <t>('0:02:09.720000', '0:02:17.860000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-297#t=51.641107', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-297#t=0.421247']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=73.32</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=19.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=0.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=129.72</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>jaah_6</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C', 'D:7/C']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Bb:7']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:04:43.300000', '0:04:52.660000')]</t>
+          <t>('0:00:14.300000', '0:00:15.210000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:23.460000', '0:01:31.460000')]</t>
+          <t>('0:00:15.530000', '0:00:16.900000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=283.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=83.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=15.53</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:46.900000', '0:00:59.100000')]</t>
+          <t>('0:00:40.820000', '0:00:43.620000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:01.140000', '0:00:09.880000')]</t>
+          <t>('0:00:23.980000', '0:00:29.420000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=46.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=40.82</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=1.14']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=23.98</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>isophonics_133</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
+          <t>['D/3', 'G', 'D']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:03.240000', '0:01:06.800000')]</t>
+          <t>('0:00:57.251357', '0:01:13.909779')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:19.720000', '0:00:23.080000')]</t>
+          <t>('0:00:16.920000', '0:00:23.900000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=57.251357</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=19.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
+          <t>schubert-winterreise_139</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>schubert-winterreise_164</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
+          <t>['E:maj/B', 'B:7', 'E:maj/B']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj/G', 'F:maj/A'], ['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['A#:maj/F', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:24.401147', '0:00:28.461467'), ('0:00:08.158789', '0:00:22.589990')]</t>
+          <t>('0:01:24.960000', '0:01:31.380000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:02:25.040000', '0:02:27.860000'), ('0:02:22.140000', '0:02:26.800000')]</t>
+          <t>('0:01:54.300000', '0:02:03.140000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=24.401147', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=8.158789']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=84.96</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=145.04', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=114.3</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>isophonics_265</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:07.100000', '0:00:27.920000')]</t>
+          <t>('0:01:45.425056', '0:01:55.003287')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:53', '0:01:02')]</t>
+          <t>('0:00:18.260000', '0:00:24.820000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=7.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=53.0']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>schubert-winterreise_212</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
+          <t>isophonics_238</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'A']]</t>
+          <t>['G#:dim7', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['B:dim7', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:04.250000', '0:00:09.179000')]</t>
+          <t>('0:00:18.840000', '0:00:20.320000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:02:24.085784', '0:02:29.240614')]</t>
+          <t>('0:00:30.076213', '0:00:37.274399')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-212#t=18.84</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=144.085784']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-238#t=30.076213</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_76</t>
+          <t>isophonics_47</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'D/3']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:09.336000', '0:00:13.342000')]</t>
+          <t>('0:00:57.777619', '0:01:01.864331')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:58.620000', '0:01:05.560000')]</t>
+          <t>('0:00:00.740000', '0:00:21.500000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=9.336']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=57.777619</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=58.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=0.74</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'F#:min', 'C:dim7'], ['F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['D:7', 'G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Eb', 'Ab:min', 'D:dim7'], ['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['A:7', 'D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:13.820000', '0:00:17.960000'), ('0:00:19.140000', '0:00:21.620000')]</t>
+          <t>('0:00:20.240000', '0:00:29.340000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:06.590000', '0:00:10.120000'), ('0:00:15.730000', '0:00:17.850000')]</t>
+          <t>('0:00:28.197000', '0:00:34.358000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=13.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=19.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=20.24</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=6.59', 'https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=15.73']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=28.197</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_47</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_2</t>
+          <t>schubert-winterreise_77</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['Db:maj6', 'Ab:min7', 'Db:7']]</t>
+          <t>['D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Eb:maj6', 'Bb:min7', 'Eb:7']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:06.980000', '0:01:11.470000')]</t>
+          <t>('0:00:00.780000', '0:00:05.980000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:27.030000', '0:00:32.610000')]</t>
+          <t>('0:00:47.020000', '0:00:51.380000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-47#t=66.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=0.78</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-2#t=27.03']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=47.02</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>isophonics_251</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'E']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G#:7', 'C#:maj', 'G#:maj']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:55.002834', '0:00:59.124376')]</t>
+          <t>('0:00:07.525011', '0:00:12.935260')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:08.480000', '0:00:10.200000')]</t>
+          <t>('0:00:57.480000', '0:01:04.580000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=55.002834']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-251#t=7.525011</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=8.48']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_26</t>
+          <t>isophonics_64</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:min7', 'G:min7', 'C:7']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E:min7', 'A:min7', 'D:7']]</t>
+          <t>['A', 'D', 'A', 'E']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:38.371000', '0:00:43.027000')]</t>
+          <t>('0:00:57.480000', '0:01:08.700000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:28.130000', '0:00:30.620000')]</t>
+          <t>('0:01:14.879000', '0:01:27.795000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=38.371']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-26#t=28.13']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_72</t>
+          <t>schubert-winterreise_58</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['F:min/C', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:32.074829', '0:00:37.705668')]</t>
+          <t>('0:00:37.960000', '0:00:44.800000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:41.080000', '0:00:43.260000')]</t>
+          <t>('0:00:43.680000', '0:00:45.800000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-72#t=32.074829']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=37.96</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=41.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=43.68</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
